--- a/output/xlsx/UC014 - Minha Conta Bancária--ART-.xlsx
+++ b/output/xlsx/UC014 - Minha Conta Bancária--ART-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>

--- a/output/xlsx/UC014 - Minha Conta Bancária--ART-.xlsx
+++ b/output/xlsx/UC014 - Minha Conta Bancária--ART-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela inicial do sistema</t>
+    <t>O usuário devidamente autenticado e na tela inicial do sistema.</t>
   </si>
   <si>
     <t>#</t>
@@ -92,7 +92,7 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Chefe Acessa a funcionalidade Minha Conta Bancária (menu)</t>
+    <t>Chefe Acessa a funcionalidade Minha Conta Bancária (menu).</t>
   </si>
   <si>
     <t>SYSTEM Exibe a tela principal do sistema para o usuário; Recupera a partir do SRH as informações da conta bancária que o usuário utiliza para receber diárias; Exibe as informações da referida conta bancária para o usuário.</t>
@@ -101,7 +101,7 @@
     <t>Chefe Visualiza os dados da referida conta bancária.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe mensagens informativas (MSG403 - Informativos sobre a atualização de conta bancários (dados bancários)) para o usuário sobre a manutenção de informações bancárias.</t>
+    <t>SYSTEM Exibe mensagens informativas (MSG403 - Informativos sobre a atualização de conta bancária (dados bancários)) para o usuário sobre a manutenção de informações bancárias.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>
@@ -116,7 +116,7 @@
     <t>Chefe Altera os dados de sua conta bancária em tela (banco/agência/conta corrente).</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta os campos (banco/agência/conta corrente) alterados</t>
+    <t>SYSTEM Apresenta os campos (banco/agência/conta corrente) alterados.</t>
   </si>
   <si>
     <t>Chefe Salva as alterações.</t>
